--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Database Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Database Project\crime-reporting-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F4261-3D1C-4B41-817C-5F652728C5EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C42C813-6BFC-4938-899C-078F37484809}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="747" activeTab="1" xr2:uid="{D4EE5472-1AC6-48C4-81D4-CD8D7E9B9919}"/>
+    <workbookView xWindow="10704" yWindow="3000" windowWidth="8604" windowHeight="5436" tabRatio="747" xr2:uid="{D4EE5472-1AC6-48C4-81D4-CD8D7E9B9919}"/>
   </bookViews>
   <sheets>
     <sheet name="data guide" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="294">
   <si>
     <t>City</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Target</t>
   </si>
   <si>
     <t>Z 874</t>
@@ -910,6 +907,21 @@
   </si>
   <si>
     <t>12:00</t>
+  </si>
+  <si>
+    <t>Target(reportID)</t>
+  </si>
+  <si>
+    <t>Crime Response ID</t>
+  </si>
+  <si>
+    <t>CRSID</t>
+  </si>
+  <si>
+    <t>PSID-xxxxx</t>
+  </si>
+  <si>
+    <t>313-12479</t>
   </si>
 </sst>
 </file>
@@ -1646,22 +1658,10 @@
   <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2283,34 +2283,37 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2352,40 +2355,37 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,6 +2440,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2789,513 +2801,535 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8D5929-2559-4F2F-9608-A0CF1AF9E5E0}">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="13.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="18.88671875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="13" customWidth="1"/>
-    <col min="13" max="14" width="15.77734375" style="20" customWidth="1"/>
-    <col min="15" max="18" width="14.44140625" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="9" customWidth="1"/>
+    <col min="9" max="11" width="18.88671875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" style="9" customWidth="1"/>
+    <col min="13" max="14" width="15.77734375" style="16" customWidth="1"/>
+    <col min="15" max="18" width="14.44140625" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="G2" s="31"/>
-      <c r="H2" s="133" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="129" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="133" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="133" t="s">
+      <c r="K2" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="133" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="G3" s="31"/>
-      <c r="H3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="131" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="G4" s="27"/>
+      <c r="H4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="132" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="G4" s="31"/>
-      <c r="H4" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="131" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="132" t="str">
+      <c r="J4" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="128" t="str">
         <f>"3-1-3"</f>
         <v>3-1-3</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="G5" s="31"/>
-      <c r="H5" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="131" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="128" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="H6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J6" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="132" t="s">
+      <c r="K6" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="L5" s="131" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="H6" s="30" t="s">
+      <c r="L6" s="127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="H7" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="128" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="127"/>
+    </row>
+    <row r="8" spans="2:18" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:18" ht="21.6" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="K6" s="132" t="s">
-        <v>224</v>
-      </c>
-      <c r="L6" s="131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:18" ht="21.6" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="I9" s="226" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="226" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="229"/>
+    </row>
+    <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="232">
+        <v>3</v>
+      </c>
+      <c r="D10" s="227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="217">
+        <v>1</v>
+      </c>
+      <c r="F10" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="237">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="163">
+        <v>3111203764</v>
+      </c>
+      <c r="J10" s="163">
+        <v>3110017318</v>
+      </c>
+      <c r="K10" s="163">
+        <v>3110013541</v>
+      </c>
+      <c r="L10" s="239">
+        <v>311</v>
+      </c>
+      <c r="M10" s="17">
+        <v>31110754</v>
+      </c>
+      <c r="N10" s="17">
+        <v>31195329</v>
+      </c>
+      <c r="O10" s="239">
+        <v>311801271</v>
+      </c>
+      <c r="P10" s="239">
+        <v>311910754</v>
+      </c>
+      <c r="Q10" s="239">
+        <v>311702278</v>
+      </c>
+      <c r="R10" s="246">
+        <v>311900236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="228"/>
+      <c r="C11" s="232">
+        <v>3</v>
+      </c>
+      <c r="D11" s="227"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="162" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2</v>
+      </c>
+      <c r="H11" s="237"/>
+      <c r="I11" s="163">
+        <v>3120126981</v>
+      </c>
+      <c r="J11" s="163">
+        <v>3120965367</v>
+      </c>
+      <c r="K11" s="163">
+        <v>3121678247</v>
+      </c>
+      <c r="L11" s="239"/>
+      <c r="M11" s="17">
+        <v>31208421</v>
+      </c>
+      <c r="N11" s="17">
+        <v>31123795</v>
+      </c>
+      <c r="O11" s="239"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="239"/>
+      <c r="R11" s="246"/>
+    </row>
+    <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="216" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="233">
+        <v>4</v>
+      </c>
+      <c r="D12" s="224" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="225">
+        <v>7</v>
+      </c>
+      <c r="F12" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="237">
         <v>120</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="I12" s="165">
+        <v>4710011982</v>
+      </c>
+      <c r="J12" s="165">
+        <v>4710112436</v>
+      </c>
+      <c r="K12" s="165">
+        <v>4710076974</v>
+      </c>
+      <c r="L12" s="240">
+        <v>471</v>
+      </c>
+      <c r="M12" s="18">
+        <v>47148978</v>
+      </c>
+      <c r="N12" s="18">
+        <v>47112370</v>
+      </c>
+      <c r="O12" s="240">
+        <v>471116912</v>
+      </c>
+      <c r="P12" s="240">
+        <v>471009631</v>
+      </c>
+      <c r="Q12" s="240">
+        <v>471904210</v>
+      </c>
+      <c r="R12" s="249">
+        <v>472000542</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="216"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="164" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="237"/>
+      <c r="I13" s="165">
+        <v>4720182689</v>
+      </c>
+      <c r="J13" s="165">
+        <v>4720082391</v>
+      </c>
+      <c r="K13" s="165">
+        <v>4720105890</v>
+      </c>
+      <c r="L13" s="240"/>
+      <c r="M13" s="18">
+        <v>47127649</v>
+      </c>
+      <c r="N13" s="18">
+        <v>47134869</v>
+      </c>
+      <c r="O13" s="240"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="249"/>
+    </row>
+    <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="215" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="234">
+        <v>7</v>
+      </c>
+      <c r="D14" s="218" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="219">
+        <v>3</v>
+      </c>
+      <c r="F14" s="166" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="229"/>
-      <c r="K9" s="229"/>
-      <c r="L9" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="229" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="229"/>
-      <c r="O9" s="229" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="229"/>
-      <c r="Q9" s="229"/>
-      <c r="R9" s="232"/>
-    </row>
-    <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="231" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="235">
-        <v>3</v>
-      </c>
-      <c r="D10" s="230" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="251">
+      <c r="H14" s="237">
+        <v>850</v>
+      </c>
+      <c r="I14" s="167">
+        <v>7310106362</v>
+      </c>
+      <c r="J14" s="167">
+        <v>7310481702</v>
+      </c>
+      <c r="K14" s="167">
+        <v>7310812657</v>
+      </c>
+      <c r="L14" s="241">
+        <v>732</v>
+      </c>
+      <c r="M14" s="19">
+        <v>73212864</v>
+      </c>
+      <c r="N14" s="19">
+        <v>73214985</v>
+      </c>
+      <c r="O14" s="247">
+        <v>731801246</v>
+      </c>
+      <c r="P14" s="247">
+        <v>732104141</v>
+      </c>
+      <c r="Q14" s="247">
+        <v>731901241</v>
+      </c>
+      <c r="R14" s="248">
+        <v>731706137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="215"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2</v>
+      </c>
+      <c r="H15" s="237"/>
+      <c r="I15" s="167">
+        <v>7320219183</v>
+      </c>
+      <c r="J15" s="167">
+        <v>7320219348</v>
+      </c>
+      <c r="K15" s="167">
+        <v>7310613751</v>
+      </c>
+      <c r="L15" s="241"/>
+      <c r="M15" s="19">
+        <v>73248642</v>
+      </c>
+      <c r="N15" s="19">
+        <v>73217642</v>
+      </c>
+      <c r="O15" s="247"/>
+      <c r="P15" s="247"/>
+      <c r="Q15" s="247"/>
+      <c r="R15" s="248"/>
+    </row>
+    <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="230" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="235">
+        <v>8</v>
+      </c>
+      <c r="D16" s="220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="222">
+        <v>6</v>
+      </c>
+      <c r="F16" s="168" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="240">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="167">
-        <v>3111203764</v>
-      </c>
-      <c r="J10" s="167">
-        <v>3110017318</v>
-      </c>
-      <c r="K10" s="167">
-        <v>3110013541</v>
-      </c>
-      <c r="L10" s="219">
-        <v>311</v>
-      </c>
-      <c r="M10" s="21">
-        <v>31110754</v>
-      </c>
-      <c r="N10" s="21">
-        <v>31195329</v>
-      </c>
-      <c r="O10" s="219">
-        <v>311801271</v>
-      </c>
-      <c r="P10" s="219">
-        <v>311910754</v>
-      </c>
-      <c r="Q10" s="219">
-        <v>311702278</v>
-      </c>
-      <c r="R10" s="220">
-        <v>311900236</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="231"/>
-      <c r="C11" s="235">
-        <v>3</v>
-      </c>
-      <c r="D11" s="230"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="166" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="H16" s="237">
+        <v>160</v>
+      </c>
+      <c r="I16" s="169">
+        <v>8610130638</v>
+      </c>
+      <c r="J16" s="169">
+        <v>8610101238</v>
+      </c>
+      <c r="K16" s="169">
+        <v>8610008641</v>
+      </c>
+      <c r="L16" s="242">
+        <v>861</v>
+      </c>
+      <c r="M16" s="20">
+        <v>86117490</v>
+      </c>
+      <c r="N16" s="20">
+        <v>86100521</v>
+      </c>
+      <c r="O16" s="242">
+        <v>861901247</v>
+      </c>
+      <c r="P16" s="242">
+        <v>861803217</v>
+      </c>
+      <c r="Q16" s="242">
+        <v>862001644</v>
+      </c>
+      <c r="R16" s="244">
+        <v>862104611</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="231"/>
+      <c r="C17" s="236">
+        <v>8</v>
+      </c>
+      <c r="D17" s="221"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="21">
         <v>2</v>
       </c>
-      <c r="H11" s="240"/>
-      <c r="I11" s="167">
-        <v>3120126981</v>
-      </c>
-      <c r="J11" s="167">
-        <v>3120965367</v>
-      </c>
-      <c r="K11" s="167">
-        <v>3121678247</v>
-      </c>
-      <c r="L11" s="219"/>
-      <c r="M11" s="21">
-        <v>31208421</v>
-      </c>
-      <c r="N11" s="21">
-        <v>31123795</v>
-      </c>
-      <c r="O11" s="219"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="219"/>
-      <c r="R11" s="220"/>
-    </row>
-    <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="250" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="236">
-        <v>4</v>
-      </c>
-      <c r="D12" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="248">
-        <v>7</v>
-      </c>
-      <c r="F12" s="168" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="240">
-        <v>120</v>
-      </c>
-      <c r="I12" s="169">
-        <v>4710011982</v>
-      </c>
-      <c r="J12" s="169">
-        <v>4710112436</v>
-      </c>
-      <c r="K12" s="169">
-        <v>4710076974</v>
-      </c>
-      <c r="L12" s="223">
-        <v>471</v>
-      </c>
-      <c r="M12" s="22">
-        <v>47148978</v>
-      </c>
-      <c r="N12" s="22">
-        <v>47112370</v>
-      </c>
-      <c r="O12" s="223">
-        <v>471116912</v>
-      </c>
-      <c r="P12" s="223">
-        <v>471009631</v>
-      </c>
-      <c r="Q12" s="223">
-        <v>471904210</v>
-      </c>
-      <c r="R12" s="224">
-        <v>472000542</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="250"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="168" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="17">
-        <v>2</v>
-      </c>
-      <c r="H13" s="240"/>
-      <c r="I13" s="169">
-        <v>4720182689</v>
-      </c>
-      <c r="J13" s="169">
-        <v>4720082391</v>
-      </c>
-      <c r="K13" s="169">
-        <v>4720105890</v>
-      </c>
-      <c r="L13" s="223"/>
-      <c r="M13" s="22">
-        <v>47127649</v>
-      </c>
-      <c r="N13" s="22">
-        <v>47134869</v>
-      </c>
-      <c r="O13" s="223"/>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="224"/>
-    </row>
-    <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="249" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="237">
-        <v>7</v>
-      </c>
-      <c r="D14" s="252" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="253">
-        <v>3</v>
-      </c>
-      <c r="F14" s="170" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="240">
-        <v>850</v>
-      </c>
-      <c r="I14" s="171">
-        <v>7310106362</v>
-      </c>
-      <c r="J14" s="171">
-        <v>7310481702</v>
-      </c>
-      <c r="K14" s="171">
-        <v>7310812657</v>
-      </c>
-      <c r="L14" s="242">
-        <v>732</v>
-      </c>
-      <c r="M14" s="23">
-        <v>73212864</v>
-      </c>
-      <c r="N14" s="23">
-        <v>73214985</v>
-      </c>
-      <c r="O14" s="221">
-        <v>731801246</v>
-      </c>
-      <c r="P14" s="221">
-        <v>732104141</v>
-      </c>
-      <c r="Q14" s="221">
-        <v>731901241</v>
-      </c>
-      <c r="R14" s="222">
-        <v>731706137</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="249"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="252"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="170" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="16">
-        <v>2</v>
-      </c>
-      <c r="H15" s="240"/>
-      <c r="I15" s="171">
-        <v>7320219183</v>
-      </c>
-      <c r="J15" s="171">
-        <v>7320219348</v>
-      </c>
-      <c r="K15" s="171">
-        <v>7310613751</v>
-      </c>
-      <c r="L15" s="242"/>
-      <c r="M15" s="23">
-        <v>73248642</v>
-      </c>
-      <c r="N15" s="23">
-        <v>73217642</v>
-      </c>
-      <c r="O15" s="221"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="222"/>
-    </row>
-    <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="233" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="238">
-        <v>8</v>
-      </c>
-      <c r="D16" s="243" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="245">
-        <v>6</v>
-      </c>
-      <c r="F16" s="172" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="240">
-        <v>160</v>
-      </c>
-      <c r="I16" s="173">
-        <v>8610130638</v>
-      </c>
-      <c r="J16" s="173">
-        <v>8610101238</v>
-      </c>
-      <c r="K16" s="173">
-        <v>8610008641</v>
-      </c>
-      <c r="L16" s="225">
-        <v>861</v>
-      </c>
-      <c r="M16" s="24">
-        <v>86117490</v>
-      </c>
-      <c r="N16" s="24">
-        <v>86100521</v>
-      </c>
-      <c r="O16" s="225">
-        <v>861901247</v>
-      </c>
-      <c r="P16" s="225">
-        <v>861803217</v>
-      </c>
-      <c r="Q16" s="225">
-        <v>862001644</v>
-      </c>
-      <c r="R16" s="227">
-        <v>862104611</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="234"/>
-      <c r="C17" s="239">
-        <v>8</v>
-      </c>
-      <c r="D17" s="244"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="174" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="25">
-        <v>2</v>
-      </c>
-      <c r="H17" s="241"/>
-      <c r="I17" s="175">
+      <c r="H17" s="238"/>
+      <c r="I17" s="171">
         <v>8620099173</v>
       </c>
-      <c r="J17" s="175">
+      <c r="J17" s="171">
         <v>8610012387</v>
       </c>
-      <c r="K17" s="175">
+      <c r="K17" s="171">
         <v>8610012865</v>
       </c>
-      <c r="L17" s="226"/>
-      <c r="M17" s="26">
+      <c r="L17" s="243"/>
+      <c r="M17" s="22">
         <v>86100764</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="22">
         <v>86107531</v>
       </c>
-      <c r="O17" s="226"/>
-      <c r="P17" s="226"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="228"/>
+      <c r="O17" s="243"/>
+      <c r="P17" s="243"/>
+      <c r="Q17" s="243"/>
+      <c r="R17" s="245"/>
     </row>
     <row r="18" spans="2:18" ht="19.2" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="B10:B11"/>
@@ -3312,23 +3346,16 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3339,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D2D23E-8B77-45C9-A974-374E8D268756}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3363,76 +3390,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="258" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
+      <c r="B1" s="254" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
     </row>
     <row r="2" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
     </row>
     <row r="3" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
     </row>
     <row r="4" spans="1:18" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98"/>
-      <c r="B4" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="77" t="s">
         <v>99</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>100</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -3443,38 +3470,38 @@
       <c r="R4"/>
     </row>
     <row r="5" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="254" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="37">
+      <c r="A5" s="250" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="33">
         <v>3111203764</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="39">
+      <c r="G5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="35">
         <v>7</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="40">
+      <c r="I5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="36">
         <v>81876037</v>
       </c>
-      <c r="K5" s="82" t="s">
-        <v>76</v>
+      <c r="K5" s="78" t="s">
+        <v>75</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -3485,36 +3512,36 @@
       <c r="R5"/>
     </row>
     <row r="6" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="255"/>
-      <c r="B6" s="41">
+      <c r="A6" s="251"/>
+      <c r="B6" s="37">
         <v>3110017318</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="43">
+      <c r="G6" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="39">
         <v>9</v>
       </c>
-      <c r="I6" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="44">
+      <c r="I6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="40">
         <v>81934489</v>
       </c>
-      <c r="K6" s="83" t="s">
-        <v>77</v>
+      <c r="K6" s="79" t="s">
+        <v>76</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -3525,36 +3552,36 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="255"/>
-      <c r="B7" s="41">
+      <c r="A7" s="251"/>
+      <c r="B7" s="37">
         <v>3110013541</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="E7" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="39">
+        <v>15</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="43">
-        <v>15</v>
-      </c>
-      <c r="I7" s="44" t="s">
+      <c r="J7" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>76</v>
+      <c r="K7" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -3565,36 +3592,36 @@
       <c r="R7"/>
     </row>
     <row r="8" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="255"/>
-      <c r="B8" s="41">
+      <c r="A8" s="251"/>
+      <c r="B8" s="37">
         <v>3120126981</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="42" t="s">
+      <c r="C8" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="43">
+      <c r="G8" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="39">
         <v>93</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="K8" s="83" t="s">
-        <v>76</v>
+      <c r="I8" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -3605,36 +3632,36 @@
       <c r="R8"/>
     </row>
     <row r="9" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="255"/>
-      <c r="B9" s="41">
+      <c r="A9" s="251"/>
+      <c r="B9" s="37">
         <v>3120965367</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="42" t="s">
+      <c r="C9" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="43">
+      <c r="G9" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="39">
         <v>41</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="83" t="s">
-        <v>77</v>
+      <c r="I9" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>76</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -3645,36 +3672,36 @@
       <c r="R9"/>
     </row>
     <row r="10" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="255"/>
-      <c r="B10" s="45">
+      <c r="A10" s="251"/>
+      <c r="B10" s="41">
         <v>3121678247</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="47">
+      <c r="G10" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="43">
         <v>29</v>
       </c>
-      <c r="I10" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>76</v>
+      <c r="I10" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>75</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -3685,38 +3712,38 @@
       <c r="R10"/>
     </row>
     <row r="11" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="256" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="49">
+      <c r="A11" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="45">
         <v>4710011982</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="E11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="47">
         <v>19</v>
       </c>
-      <c r="I11" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="52">
+      <c r="I11" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="48">
         <v>78672445</v>
       </c>
-      <c r="K11" s="85" t="s">
-        <v>77</v>
+      <c r="K11" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -3727,36 +3754,36 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="255"/>
-      <c r="B12" s="53">
+      <c r="A12" s="251"/>
+      <c r="B12" s="49">
         <v>4710112436</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="51">
         <v>5</v>
       </c>
-      <c r="I12" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="56">
+      <c r="I12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="52">
         <v>81876255</v>
       </c>
-      <c r="K12" s="86" t="s">
-        <v>76</v>
+      <c r="K12" s="82" t="s">
+        <v>75</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -3767,36 +3794,36 @@
       <c r="R12"/>
     </row>
     <row r="13" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="255"/>
-      <c r="B13" s="53">
+      <c r="A13" s="251"/>
+      <c r="B13" s="49">
         <v>4710076974</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="C13" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="51">
         <v>20</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="56" t="s">
+      <c r="I13" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="82" t="s">
         <v>75</v>
-      </c>
-      <c r="K13" s="86" t="s">
-        <v>76</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -3807,534 +3834,534 @@
       <c r="R13"/>
     </row>
     <row r="14" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="255"/>
-      <c r="B14" s="53">
+      <c r="A14" s="251"/>
+      <c r="B14" s="49">
         <v>4720182689</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="55">
+      <c r="G14" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="51">
         <v>18</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="251"/>
+      <c r="B15" s="49">
+        <v>4720082391</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="51">
+        <v>14</v>
+      </c>
+      <c r="I15" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J15" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K15" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="251"/>
+      <c r="B16" s="53">
+        <v>4720105890</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="55">
+        <v>74</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="255"/>
-      <c r="B15" s="53">
-        <v>4720082391</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="55">
+    <row r="17" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="252" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="57">
+        <v>7310106362</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="59">
+        <v>12</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="251"/>
+      <c r="B18" s="61">
+        <v>7310481702</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="63">
+        <v>51</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="251"/>
+      <c r="B19" s="61">
+        <v>7310812657</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="63">
+        <v>34</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="251"/>
+      <c r="B20" s="61">
+        <v>7320219183</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="63">
+        <v>26</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="251"/>
+      <c r="B21" s="61">
+        <v>7320219348</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="63">
+        <v>19</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="251"/>
+      <c r="B22" s="65">
+        <v>7310613751</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="67">
+        <v>62</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="252" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="69">
+        <v>8610130638</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="J15" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="86" t="s">
+      <c r="G23" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="71">
+        <v>14</v>
+      </c>
+      <c r="I23" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="251"/>
+      <c r="B24" s="73">
+        <v>8610101238</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="75">
+        <v>11</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="76">
+        <v>70927842</v>
+      </c>
+      <c r="K24" s="88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="255"/>
-      <c r="B16" s="57">
-        <v>4720105890</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="59">
-        <v>74</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="87" t="s">
+    <row r="25" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="251"/>
+      <c r="B25" s="73">
+        <v>8610008641</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="75">
+        <v>15</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="251"/>
+      <c r="B26" s="73">
+        <v>8620099173</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="75">
+        <v>67</v>
+      </c>
+      <c r="I26" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="251"/>
+      <c r="B27" s="73">
+        <v>8610012387</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="256" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="61">
-        <v>7310106362</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="63">
-        <v>12</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="88" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="255"/>
-      <c r="B18" s="65">
-        <v>7310481702</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="67">
-        <v>51</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="89" t="s">
+      <c r="E27" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="75">
+        <v>47</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="88" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="255"/>
-      <c r="B19" s="65">
-        <v>7310812657</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="67">
-        <v>34</v>
-      </c>
-      <c r="I19" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="89" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="255"/>
-      <c r="B20" s="65">
-        <v>7320219183</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="66" t="s">
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="253"/>
+      <c r="B28" s="89">
+        <v>8610012865</v>
+      </c>
+      <c r="C28" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="67">
-        <v>26</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="255"/>
-      <c r="B21" s="65">
-        <v>7320219348</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="67">
-        <v>19</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" s="89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="255"/>
-      <c r="B22" s="69">
-        <v>7310613751</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="71">
-        <v>62</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="J22" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="K22" s="90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="256" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="73">
-        <v>8610130638</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="74" t="s">
+      <c r="D28" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="75">
-        <v>14</v>
-      </c>
-      <c r="I23" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="91" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="255"/>
-      <c r="B24" s="77">
-        <v>8610101238</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="79">
-        <v>11</v>
-      </c>
-      <c r="I24" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="80">
-        <v>70927842</v>
-      </c>
-      <c r="K24" s="92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="255"/>
-      <c r="B25" s="77">
-        <v>8610008641</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="79">
-        <v>15</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="K25" s="92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="255"/>
-      <c r="B26" s="77">
-        <v>8620099173</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="79">
-        <v>67</v>
-      </c>
-      <c r="I26" s="80" t="s">
+      <c r="G28" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="91">
+        <v>94</v>
+      </c>
+      <c r="I28" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="J26" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" s="92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="255"/>
-      <c r="B27" s="77">
-        <v>8610012387</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="79">
-        <v>47</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="J27" s="80" t="s">
+      <c r="J28" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="K27" s="92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="257"/>
-      <c r="B28" s="93">
-        <v>8610012865</v>
-      </c>
-      <c r="C28" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="94" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="95">
-        <v>94</v>
-      </c>
-      <c r="I28" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="J28" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="K28" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="11:12" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="K28" s="93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="11:12" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4372,28 +4399,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="258" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="258"/>
+      <c r="B1" s="254" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="254"/>
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
     </row>
     <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
     </row>
     <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4"/>
-      <c r="B4" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>95</v>
+      <c r="B4" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>94</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -4408,10 +4435,10 @@
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5"/>
-      <c r="B5" s="105">
+      <c r="B5" s="101">
         <v>312</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="96" t="s">
         <v>5</v>
       </c>
       <c r="D5"/>
@@ -4427,10 +4454,10 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6"/>
-      <c r="B6" s="106">
+      <c r="B6" s="102">
         <v>471</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="97" t="s">
         <v>21</v>
       </c>
       <c r="D6"/>
@@ -4446,11 +4473,11 @@
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7"/>
-      <c r="B7" s="107">
+      <c r="B7" s="103">
         <v>733</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>106</v>
+      <c r="C7" s="98" t="s">
+        <v>105</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -4462,10 +4489,10 @@
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8"/>
-      <c r="B8" s="108">
+      <c r="B8" s="104">
         <v>862</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="99" t="s">
         <v>14</v>
       </c>
       <c r="G8"/>
@@ -4476,7 +4503,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -4486,7 +4513,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -4495,7 +4522,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -4504,7 +4531,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -4513,7 +4540,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -4523,22 +4550,22 @@
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D14" s="9"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D15" s="9"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D16" s="9"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D17" s="9"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D18" s="9"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D19" s="9"/>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4572,201 +4599,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="254" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="254"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="31"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="174" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="105"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="197">
+        <v>201</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="174">
+        <v>3</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="198">
+        <v>235</v>
+      </c>
+      <c r="C6" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="174">
+        <v>1</v>
+      </c>
+      <c r="F6" s="105"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="197">
+        <v>314</v>
+      </c>
+      <c r="C7" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="178" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="109"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="201">
-        <v>201</v>
-      </c>
-      <c r="C5" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="178">
-        <v>3</v>
-      </c>
-      <c r="F5" s="109"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="202">
-        <v>235</v>
-      </c>
-      <c r="C6" s="199" t="s">
+      <c r="E7" s="174">
+        <v>2</v>
+      </c>
+      <c r="F7" s="200"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="197">
+        <v>547</v>
+      </c>
+      <c r="C8" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="178">
+      <c r="E8" s="174">
+        <v>2</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="197">
+        <v>554</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="174">
         <v>1</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="201">
-        <v>314</v>
-      </c>
-      <c r="C7" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="178">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="197">
+        <v>603</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="197">
+        <v>605</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="199">
+        <v>653</v>
+      </c>
+      <c r="C12" s="196" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="174">
         <v>2</v>
       </c>
-      <c r="F7" s="204"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="201">
-        <v>547</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="178">
-        <v>2</v>
-      </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="201">
-        <v>554</v>
-      </c>
-      <c r="C9" s="115" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="178">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="201">
-        <v>603</v>
-      </c>
-      <c r="C10" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="201">
-        <v>605</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="178">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="203">
-        <v>653</v>
-      </c>
-      <c r="C12" s="200" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D15" s="9"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="D16" s="9"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D17" s="9"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D18" s="9"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D19" s="9"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D20" s="9"/>
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4782,7 +4809,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4807,744 +4834,744 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="258" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
+      <c r="A1" s="254" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
     </row>
     <row r="2" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="258"/>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
+      <c r="A2" s="254"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="258"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
     </row>
     <row r="4" spans="1:20" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="255" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="117">
+        <v>312196531</v>
+      </c>
+      <c r="C5" s="130">
+        <v>3111203764</v>
+      </c>
+      <c r="D5" s="130">
+        <v>312</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="35">
+        <v>7</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="142">
+        <v>81876037</v>
+      </c>
+      <c r="O5" s="154">
+        <v>1989</v>
+      </c>
+      <c r="P5" s="154">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="256"/>
+      <c r="B6" s="118">
+        <v>312042345</v>
+      </c>
+      <c r="C6" s="131">
+        <v>3121678247</v>
+      </c>
+      <c r="D6" s="131">
+        <v>312</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="39">
+        <v>29</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" s="143" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="154">
+        <v>1992</v>
+      </c>
+      <c r="P6" s="154">
+        <v>4</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="256"/>
+      <c r="B7" s="118">
+        <v>312074327</v>
+      </c>
+      <c r="C7" s="131">
+        <v>4710112621</v>
+      </c>
+      <c r="D7" s="131">
+        <v>312</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="39">
+        <v>37</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1100</v>
+      </c>
+      <c r="M7" s="143">
+        <v>81762457</v>
+      </c>
+      <c r="O7" s="154">
+        <v>1995</v>
+      </c>
+      <c r="P7" s="154">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="257" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="119">
+        <v>471106411</v>
+      </c>
+      <c r="C8" s="133">
+        <v>4710112436</v>
+      </c>
+      <c r="D8" s="133">
+        <v>471</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="47">
+        <v>5</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" s="145">
+        <v>81876255</v>
+      </c>
+      <c r="O8" s="154">
+        <v>1998</v>
+      </c>
+      <c r="P8" s="154">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="256"/>
+      <c r="B9" s="120">
+        <v>471191532</v>
+      </c>
+      <c r="C9" s="134">
+        <v>4720082391</v>
+      </c>
+      <c r="D9" s="134">
+        <v>471</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="51">
+        <v>14</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="M9" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" s="154">
+        <v>2001</v>
+      </c>
+      <c r="P9" s="154">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="256"/>
+      <c r="B10" s="121">
+        <v>471106432</v>
+      </c>
+      <c r="C10" s="135">
+        <v>4710115181</v>
+      </c>
+      <c r="D10" s="135">
+        <v>471</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="55">
+        <v>5</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="56">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="147">
+        <v>81876255</v>
+      </c>
+      <c r="O10" s="154">
+        <v>2004</v>
+      </c>
+      <c r="P10" s="154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="257" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="122">
+        <v>733134562</v>
+      </c>
+      <c r="C11" s="136">
+        <v>7310106362</v>
+      </c>
+      <c r="D11" s="136">
+        <v>733</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="59">
+        <v>12</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="M11" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="O11" s="154">
+        <v>2007</v>
+      </c>
+      <c r="P11" s="154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="256"/>
+      <c r="B12" s="123">
+        <v>733191987</v>
+      </c>
+      <c r="C12" s="137">
+        <v>7320219348</v>
+      </c>
+      <c r="D12" s="137">
+        <v>733</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="63">
+        <v>19</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="O12" s="154">
+        <v>2010</v>
+      </c>
+      <c r="P12" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="256"/>
+      <c r="B13" s="123">
+        <v>733923456</v>
+      </c>
+      <c r="C13" s="137">
+        <v>3111201576</v>
+      </c>
+      <c r="D13" s="137">
+        <v>733</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="63">
+        <v>63</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="64">
+        <v>1500</v>
+      </c>
+      <c r="M13" s="149">
+        <v>71457488</v>
+      </c>
+      <c r="O13" s="154">
+        <v>2013</v>
+      </c>
+      <c r="P13" s="154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="257" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="124">
+        <v>862198126</v>
+      </c>
+      <c r="C14" s="139">
+        <v>8610101238</v>
+      </c>
+      <c r="D14" s="139">
+        <v>862</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="J14" s="71">
+        <v>11</v>
+      </c>
+      <c r="K14" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="L14" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="151">
+        <v>70927842</v>
+      </c>
+      <c r="O14" s="154">
+        <v>2016</v>
+      </c>
+      <c r="P14" s="154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="256"/>
+      <c r="B15" s="125">
+        <v>862136349</v>
+      </c>
+      <c r="C15" s="140">
+        <v>8610012865</v>
+      </c>
+      <c r="D15" s="140">
+        <v>862</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="75">
         <v>94</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="259" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="121">
-        <v>312196531</v>
-      </c>
-      <c r="C5" s="134">
-        <v>3111203764</v>
-      </c>
-      <c r="D5" s="134">
-        <v>312</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="K15" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="152" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="154">
+        <v>2019</v>
+      </c>
+      <c r="P15" s="154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="258"/>
+      <c r="B16" s="126">
+        <v>862136824</v>
+      </c>
+      <c r="C16" s="141">
+        <v>3121247890</v>
+      </c>
+      <c r="D16" s="141">
+        <v>862</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="39">
-        <v>7</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="M5" s="146">
-        <v>81876037</v>
-      </c>
-      <c r="O5" s="158">
-        <v>1989</v>
-      </c>
-      <c r="P5" s="158">
-        <v>1</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="260"/>
-      <c r="B6" s="122">
-        <v>312042345</v>
-      </c>
-      <c r="C6" s="135">
-        <v>3121678247</v>
-      </c>
-      <c r="D6" s="135">
-        <v>312</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="43">
-        <v>29</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="M6" s="147" t="s">
-        <v>169</v>
-      </c>
-      <c r="O6" s="158">
-        <v>1992</v>
-      </c>
-      <c r="P6" s="158">
-        <v>4</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="260"/>
-      <c r="B7" s="122">
-        <v>312074327</v>
-      </c>
-      <c r="C7" s="135">
-        <v>4710112621</v>
-      </c>
-      <c r="D7" s="135">
-        <v>312</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="43">
-        <v>37</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="44">
-        <v>1100</v>
-      </c>
-      <c r="M7" s="147">
-        <v>81762457</v>
-      </c>
-      <c r="O7" s="158">
-        <v>1995</v>
-      </c>
-      <c r="P7" s="158">
-        <v>7</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="261" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="123">
-        <v>471106411</v>
-      </c>
-      <c r="C8" s="137">
-        <v>4710112436</v>
-      </c>
-      <c r="D8" s="137">
-        <v>471</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="51">
-        <v>5</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="149">
-        <v>81876255</v>
-      </c>
-      <c r="O8" s="158">
-        <v>1998</v>
-      </c>
-      <c r="P8" s="158">
+      <c r="I16" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="91">
+        <v>14</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="92">
+        <v>1600</v>
+      </c>
+      <c r="M16" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="154">
+        <v>2022</v>
+      </c>
+      <c r="P16" s="154">
         <v>10</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="260"/>
-      <c r="B9" s="124">
-        <v>471191532</v>
-      </c>
-      <c r="C9" s="138">
-        <v>4720082391</v>
-      </c>
-      <c r="D9" s="138">
-        <v>471</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="55">
-        <v>14</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="M9" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="O9" s="158">
-        <v>2001</v>
-      </c>
-      <c r="P9" s="158">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="260"/>
-      <c r="B10" s="125">
-        <v>471106432</v>
-      </c>
-      <c r="C10" s="139">
-        <v>4710115181</v>
-      </c>
-      <c r="D10" s="139">
-        <v>471</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="59">
-        <v>5</v>
-      </c>
-      <c r="K10" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="L10" s="60">
-        <v>1500</v>
-      </c>
-      <c r="M10" s="151">
-        <v>81876255</v>
-      </c>
-      <c r="O10" s="158">
-        <v>2004</v>
-      </c>
-      <c r="P10" s="158">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="261" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="126">
-        <v>733134562</v>
-      </c>
-      <c r="C11" s="140">
-        <v>7310106362</v>
-      </c>
-      <c r="D11" s="140">
-        <v>733</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="63">
-        <v>12</v>
-      </c>
-      <c r="K11" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="152" t="s">
-        <v>173</v>
-      </c>
-      <c r="O11" s="158">
-        <v>2007</v>
-      </c>
-      <c r="P11" s="158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="260"/>
-      <c r="B12" s="127">
-        <v>733191987</v>
-      </c>
-      <c r="C12" s="141">
-        <v>7320219348</v>
-      </c>
-      <c r="D12" s="141">
-        <v>733</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="67">
-        <v>19</v>
-      </c>
-      <c r="K12" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="L12" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="M12" s="153" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="158">
-        <v>2010</v>
-      </c>
-      <c r="P12" s="158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="260"/>
-      <c r="B13" s="127">
-        <v>733923456</v>
-      </c>
-      <c r="C13" s="141">
-        <v>3111201576</v>
-      </c>
-      <c r="D13" s="141">
-        <v>733</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="67">
-        <v>63</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="68">
-        <v>1500</v>
-      </c>
-      <c r="M13" s="153">
-        <v>71457488</v>
-      </c>
-      <c r="O13" s="158">
-        <v>2013</v>
-      </c>
-      <c r="P13" s="158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="261" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="128">
-        <v>862198126</v>
-      </c>
-      <c r="C14" s="143">
-        <v>8610101238</v>
-      </c>
-      <c r="D14" s="143">
-        <v>862</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="75">
-        <v>11</v>
-      </c>
-      <c r="K14" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="L14" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="M14" s="155">
-        <v>70927842</v>
-      </c>
-      <c r="O14" s="158">
-        <v>2016</v>
-      </c>
-      <c r="P14" s="158">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="260"/>
-      <c r="B15" s="129">
-        <v>862136349</v>
-      </c>
-      <c r="C15" s="144">
-        <v>8610012865</v>
-      </c>
-      <c r="D15" s="144">
-        <v>862</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="79">
-        <v>94</v>
-      </c>
-      <c r="K15" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="M15" s="156" t="s">
-        <v>181</v>
-      </c>
-      <c r="O15" s="158">
-        <v>2019</v>
-      </c>
-      <c r="P15" s="158">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="262"/>
-      <c r="B16" s="130">
-        <v>862136824</v>
-      </c>
-      <c r="C16" s="145">
-        <v>3121247890</v>
-      </c>
-      <c r="D16" s="145">
-        <v>862</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="95">
-        <v>14</v>
-      </c>
-      <c r="K16" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="96">
-        <v>1600</v>
-      </c>
-      <c r="M16" s="157" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="158">
-        <v>2022</v>
-      </c>
-      <c r="P16" s="158">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="8" customFormat="1" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="17" spans="2:14" s="4" customFormat="1" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B20" s="159"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="B20" s="155"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5572,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9392B2-AE1C-4A46-BE78-ED5EF1B6125B}">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5599,499 +5626,499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="258" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
+      <c r="A1" s="254" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
     </row>
     <row r="2" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="258"/>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
+      <c r="A2" s="254"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
     </row>
     <row r="3" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="258"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
     </row>
     <row r="4" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98"/>
-      <c r="B4" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="120" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="214" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="214" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="218" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="218" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L4" s="77" t="s">
         <v>277</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>278</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="263" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="187">
+      <c r="A5" s="259" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="183">
         <v>3121901271</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="33">
         <v>312196531</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>4710011982</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="39">
+      <c r="F5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="35">
         <v>56</v>
       </c>
-      <c r="H5" s="38" t="str">
+      <c r="H5" s="34" t="str">
         <f>_xlfn.CONCAT("/Images/",B5)</f>
         <v>/Images/3121901271</v>
       </c>
-      <c r="I5" s="205" t="s">
-        <v>283</v>
-      </c>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="201" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" s="146"/>
+      <c r="L5" s="142"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="263"/>
-      <c r="B6" s="189">
+      <c r="A6" s="259"/>
+      <c r="B6" s="185">
         <v>3122003718</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <v>312042345</v>
       </c>
-      <c r="D6" s="135">
+      <c r="D6" s="131">
         <v>3110017318</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="43">
+      <c r="F6" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="39">
         <v>9</v>
       </c>
-      <c r="H6" s="38" t="str">
+      <c r="H6" s="34" t="str">
         <f>_xlfn.CONCAT("/Images/",B6)</f>
         <v>/Images/3122003718</v>
       </c>
-      <c r="I6" s="206" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" s="44" t="s">
+      <c r="I6" s="202" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="147"/>
+      <c r="K6" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="143"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="263"/>
-      <c r="B7" s="189">
+      <c r="A7" s="259"/>
+      <c r="B7" s="185">
         <v>3121910137</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="37">
         <v>312042345</v>
       </c>
-      <c r="D7" s="135">
+      <c r="D7" s="131">
         <v>3120126981</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="F7" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="39">
         <v>93</v>
       </c>
-      <c r="H7" s="38" t="str">
+      <c r="H7" s="34" t="str">
         <f t="shared" ref="H7:H20" si="0">_xlfn.CONCAT("/Images/",B7)</f>
         <v>/Images/3121910137</v>
       </c>
-      <c r="I7" s="206" t="s">
+      <c r="I7" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="147"/>
+      <c r="L7" s="143"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="259"/>
-      <c r="B8" s="193">
+      <c r="A8" s="255"/>
+      <c r="B8" s="189">
         <v>3122009431</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="41">
         <v>312042345</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="132">
         <v>3120965367</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="47">
+      <c r="F8" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="43">
         <v>41</v>
       </c>
-      <c r="H8" s="38" t="str">
+      <c r="H8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>/Images/3122009431</v>
       </c>
-      <c r="I8" s="207" t="s">
+      <c r="I8" s="203" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="J8" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="L8" s="148"/>
+      <c r="L8" s="144"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="264" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="194">
+      <c r="A9" s="260" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="190">
         <v>4711906530</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="45">
         <v>471106432</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="133"/>
+      <c r="E9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="51">
+      <c r="F9" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="47">
         <v>20</v>
       </c>
-      <c r="H9" s="50" t="str">
+      <c r="H9" s="46" t="str">
         <f t="shared" si="0"/>
         <v>/Images/4711906530</v>
       </c>
-      <c r="I9" s="208" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="149"/>
+      <c r="I9" s="204" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="145"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="263"/>
-      <c r="B10" s="188">
+      <c r="A10" s="259"/>
+      <c r="B10" s="184">
         <v>4711801270</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="49">
         <v>471191532</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="134"/>
+      <c r="E10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="54" t="str">
+      <c r="F10" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50" t="str">
         <f t="shared" si="0"/>
         <v>/Images/4711801270</v>
       </c>
-      <c r="I10" s="209" t="s">
-        <v>206</v>
-      </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="150"/>
+      <c r="I10" s="205" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="146"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
     </row>
     <row r="11" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="263"/>
-      <c r="B11" s="188">
+      <c r="A11" s="259"/>
+      <c r="B11" s="184">
         <v>4712009512</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="49">
         <v>471106432</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="134"/>
+      <c r="E11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="54" t="str">
+      <c r="F11" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50" t="str">
         <f t="shared" si="0"/>
         <v>/Images/4712009512</v>
       </c>
-      <c r="I11" s="209" t="s">
-        <v>209</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="150"/>
+      <c r="I11" s="205" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="146"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
     </row>
     <row r="12" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="259"/>
-      <c r="B12" s="195">
+      <c r="A12" s="255"/>
+      <c r="B12" s="191">
         <v>4711903127</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="53">
         <v>471191532</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="58" t="s">
+      <c r="D12" s="135"/>
+      <c r="E12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="58" t="str">
+      <c r="F12" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54" t="str">
         <f t="shared" si="0"/>
         <v>/Images/4711903127</v>
       </c>
-      <c r="I12" s="210" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="151"/>
+      <c r="I12" s="206" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="147"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="264" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="196">
+      <c r="A13" s="260" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="192">
         <v>7331901387</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="57">
         <v>733134562</v>
       </c>
-      <c r="D13" s="140">
+      <c r="D13" s="136">
         <v>7310812657</v>
       </c>
-      <c r="E13" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="63">
+      <c r="E13" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="59">
         <v>34</v>
       </c>
-      <c r="H13" s="62" t="str">
+      <c r="H13" s="58" t="str">
         <f t="shared" si="0"/>
         <v>/Images/7331901387</v>
       </c>
-      <c r="I13" s="211" t="s">
-        <v>272</v>
-      </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="152"/>
+      <c r="I13" s="207" t="s">
+        <v>271</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="148"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="263"/>
-      <c r="B14" s="190">
+      <c r="A14" s="259"/>
+      <c r="B14" s="186">
         <v>7331902764</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="61">
         <v>733191987</v>
       </c>
-      <c r="D14" s="141">
+      <c r="D14" s="137">
         <v>7310481702</v>
       </c>
-      <c r="E14" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="E14" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="63">
         <v>26</v>
       </c>
-      <c r="H14" s="66" t="str">
+      <c r="H14" s="62" t="str">
         <f t="shared" si="0"/>
         <v>/Images/7331902764</v>
       </c>
-      <c r="I14" s="217" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="68" t="s">
+      <c r="I14" s="213" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="K14" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="153"/>
+      <c r="L14" s="149"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
     </row>
     <row r="15" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="263"/>
-      <c r="B15" s="190">
+      <c r="A15" s="259"/>
+      <c r="B15" s="186">
         <v>7331904857</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="61">
         <v>733923456</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="66" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="66" t="str">
+      <c r="G15" s="63"/>
+      <c r="H15" s="62" t="str">
         <f t="shared" si="0"/>
         <v>/Images/7331904857</v>
       </c>
-      <c r="I15" s="217" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="L15" s="153" t="s">
+      <c r="I15" s="213" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" s="149" t="s">
         <v>31</v>
       </c>
       <c r="M15"/>
@@ -6100,196 +6127,196 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="263"/>
-      <c r="B16" s="190">
+      <c r="A16" s="259"/>
+      <c r="B16" s="186">
         <v>7331903719</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="61">
         <v>733134562</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="66" t="str">
+      <c r="D16" s="137"/>
+      <c r="E16" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="62" t="str">
         <f t="shared" si="0"/>
         <v>/Images/7331903719</v>
       </c>
-      <c r="I16" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="153"/>
+      <c r="I16" s="208" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="149"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="259"/>
-      <c r="B17" s="197">
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="255"/>
+      <c r="B17" s="193">
         <v>7332006125</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="65">
         <v>733923456</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="70" t="s">
+      <c r="D17" s="138"/>
+      <c r="E17" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70" t="str">
+      <c r="G17" s="67"/>
+      <c r="H17" s="66" t="str">
         <f t="shared" si="0"/>
         <v>/Images/7332006125</v>
       </c>
-      <c r="I17" s="213" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="154"/>
+      <c r="I17" s="209" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="150"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="264" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="198">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="260" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="194">
         <v>8622003671</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="69">
         <v>862198126</v>
       </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="74" t="s">
+      <c r="D18" s="139"/>
+      <c r="E18" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="74" t="str">
+      <c r="F18" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="71"/>
+      <c r="H18" s="70" t="str">
         <f t="shared" si="0"/>
         <v>/Images/8622003671</v>
       </c>
-      <c r="I18" s="214" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="155"/>
+      <c r="I18" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="151"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="263"/>
-      <c r="B19" s="191">
+      <c r="A19" s="259"/>
+      <c r="B19" s="187">
         <v>8622007135</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="73">
         <v>862136349</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="78" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="78" t="str">
+      <c r="F19" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="75"/>
+      <c r="H19" s="74" t="str">
         <f t="shared" si="0"/>
         <v>/Images/8622007135</v>
       </c>
-      <c r="I19" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="156"/>
+      <c r="I19" s="211" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="152"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="265"/>
-      <c r="B20" s="192">
+      <c r="A20" s="261"/>
+      <c r="B20" s="188">
         <v>8622001255</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="89">
         <v>862198126</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="94" t="s">
+      <c r="D20" s="141"/>
+      <c r="E20" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="94" t="str">
+      <c r="F20" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="90" t="str">
         <f t="shared" si="0"/>
         <v>/Images/8622001255</v>
       </c>
-      <c r="I20" s="216" t="s">
-        <v>210</v>
-      </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="157"/>
+      <c r="I20" s="212" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="153"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -6502,255 +6529,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2E5D64-C973-4ECC-A0BC-DF0D8E90C498}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="54.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="37.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="54.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="266" t="s">
+      <c r="D2" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="266" t="s">
+      <c r="E2" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="266" t="s">
+      <c r="F2" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="262" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="262" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="265" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="266" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="269" t="s">
+      <c r="B3" s="267">
+        <v>9247</v>
+      </c>
+      <c r="C3" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="271">
-        <v>9247</v>
-      </c>
-      <c r="C3" s="267" t="s">
+      <c r="D3" s="263" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="267" t="s">
+      <c r="E3" s="263" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="263" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="267" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="267" t="s">
+      <c r="G3" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="267" t="s">
+      <c r="H3" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="267" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="268" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>9564</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3">
-        <v>9564</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="8">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="2">
+        <v>6927</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="269" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4172</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5825</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="268" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8745</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7345</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="269" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7405</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3576</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="270" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7376</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9834</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3">
-        <v>6927</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4172</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.50416666666666665</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5825</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8745</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.11597222222222221</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7345</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5">
-        <v>7405</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3576</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7376</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.22152777777777777</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="271" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2374</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9834</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2374</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="12">
-        <v>0.78333333333333333</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>4982</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>44</v>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6779,7 +6806,7 @@
   <cols>
     <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="158" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="154" customWidth="1"/>
     <col min="4" max="4" width="70.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -6790,66 +6817,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="258" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
+      <c r="B1" s="254" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="D4" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="162" t="s">
-        <v>66</v>
-      </c>
       <c r="E4"/>
-      <c r="F4" s="109"/>
+      <c r="F4" s="105"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5"/>
-      <c r="B5" s="181">
+      <c r="B5" s="177">
         <v>7331902764</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="115">
         <v>201</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="114"/>
       <c r="E5"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="176">
+      <c r="F5" s="105"/>
+      <c r="G5" s="172">
         <v>201</v>
       </c>
-      <c r="H5" s="177" t="s">
-        <v>63</v>
+      <c r="H5" s="173" t="s">
+        <v>62</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -6860,20 +6887,20 @@
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6"/>
-      <c r="B6" s="182">
+      <c r="B6" s="178">
         <v>7331901387</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="32">
         <v>201</v>
       </c>
-      <c r="D6" s="111"/>
+      <c r="D6" s="107"/>
       <c r="E6"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="110">
+      <c r="F6" s="105"/>
+      <c r="G6" s="106">
         <v>235</v>
       </c>
-      <c r="H6" s="111" t="s">
-        <v>207</v>
+      <c r="H6" s="107" t="s">
+        <v>206</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -6884,20 +6911,20 @@
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7"/>
-      <c r="B7" s="182">
+      <c r="B7" s="178">
         <v>8622003671</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="32">
         <v>201</v>
       </c>
-      <c r="D7" s="111"/>
+      <c r="D7" s="107"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7" s="112">
+      <c r="G7" s="108">
         <v>314</v>
       </c>
-      <c r="H7" s="113" t="s">
-        <v>206</v>
+      <c r="H7" s="109" t="s">
+        <v>205</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -6908,19 +6935,19 @@
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8"/>
-      <c r="B8" s="182">
+      <c r="B8" s="178">
         <v>4711906530</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <v>235</v>
       </c>
-      <c r="D8" s="111"/>
+      <c r="D8" s="107"/>
       <c r="F8"/>
-      <c r="G8" s="114">
+      <c r="G8" s="110">
         <v>547</v>
       </c>
-      <c r="H8" s="115" t="s">
-        <v>208</v>
+      <c r="H8" s="111" t="s">
+        <v>207</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -6931,19 +6958,19 @@
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
-      <c r="B9" s="183">
+      <c r="B9" s="179">
         <v>4711801270</v>
       </c>
-      <c r="C9" s="163">
+      <c r="C9" s="159">
         <v>314</v>
       </c>
-      <c r="D9" s="113"/>
+      <c r="D9" s="109"/>
       <c r="F9"/>
-      <c r="G9" s="114">
+      <c r="G9" s="110">
         <v>554</v>
       </c>
-      <c r="H9" s="115" t="s">
-        <v>209</v>
+      <c r="H9" s="111" t="s">
+        <v>208</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -6952,21 +6979,21 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10"/>
-      <c r="B10" s="183">
+      <c r="B10" s="179">
         <v>8622007135</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="159">
         <v>314</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="109"/>
       <c r="F10"/>
-      <c r="G10" s="116">
+      <c r="G10" s="112">
         <v>603</v>
       </c>
-      <c r="H10" s="117" t="s">
-        <v>204</v>
+      <c r="H10" s="113" t="s">
+        <v>203</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -6975,22 +7002,22 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="184">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="180">
         <v>7331904857</v>
       </c>
-      <c r="C11" s="164">
+      <c r="C11" s="160">
         <v>547</v>
       </c>
-      <c r="D11" s="115" t="s">
-        <v>260</v>
+      <c r="D11" s="111" t="s">
+        <v>259</v>
       </c>
       <c r="F11"/>
-      <c r="G11" s="116">
+      <c r="G11" s="112">
         <v>605</v>
       </c>
-      <c r="H11" s="117" t="s">
-        <v>210</v>
+      <c r="H11" s="113" t="s">
+        <v>209</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -6999,22 +7026,22 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="184">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="180">
         <v>3121901271</v>
       </c>
-      <c r="C12" s="164">
+      <c r="C12" s="160">
         <v>547</v>
       </c>
-      <c r="D12" s="115" t="s">
-        <v>285</v>
+      <c r="D12" s="111" t="s">
+        <v>284</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="108">
+      <c r="G12" s="104">
         <v>653</v>
       </c>
-      <c r="H12" s="103" t="s">
-        <v>211</v>
+      <c r="H12" s="99" t="s">
+        <v>210</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7024,15 +7051,15 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="184">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="180">
         <v>4712009512</v>
       </c>
-      <c r="C13" s="164">
+      <c r="C13" s="160">
         <v>554</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="111"/>
+      <c r="G13" s="26"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -7040,15 +7067,15 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="184">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="180">
         <v>3122009431</v>
       </c>
-      <c r="C14" s="164">
+      <c r="C14" s="160">
         <v>554</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="G14" s="30"/>
+      <c r="D14" s="111"/>
+      <c r="G14" s="26"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -7056,18 +7083,18 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="185">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="181">
         <v>3122003718</v>
       </c>
-      <c r="C15" s="165">
+      <c r="C15" s="161">
         <v>603</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="G15" s="176">
+      <c r="D15" s="113"/>
+      <c r="G15" s="172">
         <v>312</v>
       </c>
-      <c r="H15" s="177" t="s">
+      <c r="H15" s="173" t="s">
         <v>5</v>
       </c>
       <c r="I15"/>
@@ -7077,72 +7104,72 @@
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="185">
+      <c r="B16" s="181">
         <v>3121910137</v>
       </c>
-      <c r="C16" s="165">
+      <c r="C16" s="161">
         <v>605</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="G16" s="106">
+      <c r="D16" s="113"/>
+      <c r="G16" s="102">
         <v>471</v>
       </c>
-      <c r="H16" s="101" t="s">
+      <c r="H16" s="97" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="185">
+      <c r="B17" s="181">
         <v>7331903719</v>
       </c>
-      <c r="C17" s="165">
+      <c r="C17" s="161">
         <v>605</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="G17" s="107">
+      <c r="D17" s="113"/>
+      <c r="G17" s="103">
         <v>733</v>
       </c>
-      <c r="H17" s="102" t="s">
-        <v>106</v>
+      <c r="H17" s="98" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="185">
+      <c r="B18" s="181">
         <v>8622001255</v>
       </c>
-      <c r="C18" s="165">
+      <c r="C18" s="161">
         <v>605</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="G18" s="108">
+      <c r="D18" s="113"/>
+      <c r="G18" s="104">
         <v>862</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="185">
+      <c r="B19" s="181">
         <v>4711903127</v>
       </c>
-      <c r="C19" s="165">
+      <c r="C19" s="161">
         <v>653</v>
       </c>
-      <c r="D19" s="117"/>
+      <c r="D19" s="113"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="186">
+      <c r="B20" s="182">
         <v>7332006125</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="95">
         <v>653</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="G20" s="179" t="s">
-        <v>259</v>
-      </c>
-      <c r="H20" s="180" t="s">
-        <v>256</v>
+      <c r="D20" s="99"/>
+      <c r="G20" s="175" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="176" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
